--- a/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20140613_Leak1.xlsx
+++ b/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20140613_Leak1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="4620" windowWidth="18920" windowHeight="14140" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="26">
   <si>
     <t>SampleName</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>20140613_Leak1</t>
+  </si>
+  <si>
+    <t>Mix1Leak</t>
+  </si>
+  <si>
+    <t>Mix2Leak</t>
+  </si>
+  <si>
+    <t>3N2OLeak</t>
+  </si>
+  <si>
+    <t>10N2OLeak</t>
+  </si>
+  <si>
+    <t>3KCO2Leak</t>
   </si>
 </sst>
 </file>
@@ -135,8 +150,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="265">
+  <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -407,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="265">
+  <cellStyles count="275">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -540,6 +565,11 @@
     <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -672,6 +702,11 @@
     <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1004,7 +1039,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1060,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1092,7 +1127,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1124,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1156,7 +1191,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1188,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1220,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1252,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -1284,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1316,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1348,7 +1383,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1380,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1412,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1444,7 +1479,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1476,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1508,7 +1543,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
